--- a/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,18 +508,24 @@
         <v>179</v>
       </c>
       <c r="G2">
+        <v>179</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>74</v>
       </c>
       <c r="D2">
-        <v>0.002378241275437176</v>
+        <v>0.0002204948104918003</v>
       </c>
       <c r="E2">
-        <v>0.7785821330035105</v>
+        <v>0.07130659278482199</v>
       </c>
       <c r="F2">
         <v>74</v>
       </c>
       <c r="G2">
-        <v>0.03482439811341465</v>
+        <v>0.005091064609587193</v>
       </c>
       <c r="H2">
-        <v>0.04425460170023143</v>
+        <v>0.008485582657158375</v>
       </c>
       <c r="I2">
-        <v>0.1687358551425859</v>
+        <v>0.01772248419001698</v>
       </c>
       <c r="J2">
-        <v>0.5038464111275971</v>
+        <v>0.03472968563437462</v>
       </c>
       <c r="K2">
-        <v>0.007341878022998571</v>
+        <v>0.001473214011639357</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>0.3146907147020102</v>
+        <v>0.01317217200994492</v>
       </c>
       <c r="E3">
-        <v>1.696429483010434</v>
+        <v>0.1420593098737299</v>
       </c>
       <c r="F3">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>0.03012674138881266</v>
+        <v>0.005182759836316109</v>
       </c>
       <c r="H3">
-        <v>0.3677184380358085</v>
+        <v>0.02178089832887053</v>
       </c>
       <c r="I3">
-        <v>0.5180866816081107</v>
+        <v>0.03180655324831605</v>
       </c>
       <c r="J3">
-        <v>0.7510667288443074</v>
+        <v>0.06778038246557117</v>
       </c>
       <c r="K3">
-        <v>0.006483873352408409</v>
+        <v>0.00274834455922246</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>74</v>
       </c>
       <c r="D4">
-        <v>0.208561718929559</v>
+        <v>0.008897277060896158</v>
       </c>
       <c r="E4">
-        <v>1.778900639037602</v>
+        <v>0.09920145897194743</v>
       </c>
       <c r="F4">
         <v>74</v>
       </c>
       <c r="G4">
-        <v>0.02755186893045902</v>
+        <v>0.004782401956617832</v>
       </c>
       <c r="H4">
-        <v>0.2641475086566061</v>
+        <v>0.01754860859364271</v>
       </c>
       <c r="I4">
-        <v>0.7883597441250458</v>
+        <v>0.0193409463390708</v>
       </c>
       <c r="J4">
-        <v>0.676179091213271</v>
+        <v>0.05224540131166577</v>
       </c>
       <c r="K4">
-        <v>0.006119854049757123</v>
+        <v>0.001587110571563244</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>74</v>
       </c>
       <c r="D5">
-        <v>0.003232294344343245</v>
+        <v>0.001077121123671532</v>
       </c>
       <c r="E5">
-        <v>0.9735881889937446</v>
+        <v>0.1215641372837126</v>
       </c>
       <c r="F5">
         <v>74</v>
       </c>
       <c r="G5">
-        <v>0.03700994816608727</v>
+        <v>0.009230953175574541</v>
       </c>
       <c r="H5">
-        <v>0.04533846117556095</v>
+        <v>0.01577665004879236</v>
       </c>
       <c r="I5">
-        <v>0.2761478823376819</v>
+        <v>0.04225967964157462</v>
       </c>
       <c r="J5">
-        <v>0.5869940166594461</v>
+        <v>0.04756954172626138</v>
       </c>
       <c r="K5">
-        <v>0.006289118202403188</v>
+        <v>0.002093059010803699</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>376</v>
+      </c>
+      <c r="D6">
+        <v>0.01373687805607915</v>
+      </c>
+      <c r="E6">
+        <v>0.594881584867835</v>
+      </c>
+      <c r="F6">
+        <v>376</v>
+      </c>
+      <c r="G6">
+        <v>0.01925490237772465</v>
+      </c>
+      <c r="H6">
+        <v>0.04424832295626402</v>
+      </c>
+      <c r="I6">
+        <v>0.4168348177336156</v>
+      </c>
+      <c r="J6">
+        <v>0.09340063342824578</v>
+      </c>
+      <c r="K6">
+        <v>0.006329506635665894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>2850</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.03147953515872359</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>74</v>
-      </c>
-      <c r="D7">
-        <v>0.002378241275437176</v>
-      </c>
-      <c r="E7">
-        <v>0.7785821330035105</v>
-      </c>
-      <c r="F7">
-        <v>74</v>
-      </c>
-      <c r="G7">
-        <v>0.03482439811341465</v>
-      </c>
-      <c r="H7">
-        <v>0.04425460170023143</v>
-      </c>
-      <c r="I7">
-        <v>0.1687358551425859</v>
-      </c>
-      <c r="J7">
-        <v>0.5038464111275971</v>
-      </c>
-      <c r="K7">
-        <v>0.007341878022998571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>0.3146907147020102</v>
+        <v>0.0002204948104918003</v>
       </c>
       <c r="E8">
-        <v>1.696429483010434</v>
+        <v>0.07130659278482199</v>
       </c>
       <c r="F8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>0.03012674138881266</v>
+        <v>0.005091064609587193</v>
       </c>
       <c r="H8">
-        <v>0.3677184380358085</v>
+        <v>0.008485582657158375</v>
       </c>
       <c r="I8">
-        <v>0.5180866816081107</v>
+        <v>0.01772248419001698</v>
       </c>
       <c r="J8">
-        <v>0.7510667288443074</v>
+        <v>0.03472968563437462</v>
       </c>
       <c r="K8">
-        <v>0.006483873352408409</v>
+        <v>0.001473214011639357</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>74</v>
       </c>
       <c r="D9">
-        <v>0.208561718929559</v>
+        <v>0.01317217200994492</v>
       </c>
       <c r="E9">
-        <v>1.778900639037602</v>
+        <v>0.1420593098737299</v>
       </c>
       <c r="F9">
         <v>74</v>
       </c>
       <c r="G9">
-        <v>0.02755186893045902</v>
+        <v>0.005182759836316109</v>
       </c>
       <c r="H9">
-        <v>0.2641475086566061</v>
+        <v>0.02178089832887053</v>
       </c>
       <c r="I9">
-        <v>0.7883597441250458</v>
+        <v>0.03180655324831605</v>
       </c>
       <c r="J9">
-        <v>0.676179091213271</v>
+        <v>0.06778038246557117</v>
       </c>
       <c r="K9">
-        <v>0.006119854049757123</v>
+        <v>0.00274834455922246</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>74</v>
       </c>
       <c r="D10">
-        <v>0.003232294344343245</v>
+        <v>0.008897277060896158</v>
       </c>
       <c r="E10">
-        <v>0.9735881889937446</v>
+        <v>0.09920145897194743</v>
       </c>
       <c r="F10">
         <v>74</v>
       </c>
       <c r="G10">
-        <v>0.03700994816608727</v>
+        <v>0.004782401956617832</v>
       </c>
       <c r="H10">
-        <v>0.04533846117556095</v>
+        <v>0.01754860859364271</v>
       </c>
       <c r="I10">
-        <v>0.2761478823376819</v>
+        <v>0.0193409463390708</v>
       </c>
       <c r="J10">
-        <v>0.5869940166594461</v>
+        <v>0.05224540131166577</v>
       </c>
       <c r="K10">
-        <v>0.006289118202403188</v>
+        <v>0.001587110571563244</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>0.001077121123671532</v>
+      </c>
+      <c r="E11">
+        <v>0.1215641372837126</v>
+      </c>
+      <c r="F11">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <v>0.009230953175574541</v>
+      </c>
+      <c r="H11">
+        <v>0.01577665004879236</v>
+      </c>
+      <c r="I11">
+        <v>0.04225967964157462</v>
+      </c>
+      <c r="J11">
+        <v>0.04756954172626138</v>
+      </c>
+      <c r="K11">
+        <v>0.002093059010803699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>376</v>
+      </c>
+      <c r="D12">
+        <v>0.01373687805607915</v>
+      </c>
+      <c r="E12">
+        <v>0.594881584867835</v>
+      </c>
+      <c r="F12">
+        <v>376</v>
+      </c>
+      <c r="G12">
+        <v>0.01925490237772465</v>
+      </c>
+      <c r="H12">
+        <v>0.04424832295626402</v>
+      </c>
+      <c r="I12">
+        <v>0.4168348177336156</v>
+      </c>
+      <c r="J12">
+        <v>0.09340063342824578</v>
+      </c>
+      <c r="K12">
+        <v>0.006329506635665894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>2850</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.03147953515872359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>74</v>
       </c>
       <c r="D2">
-        <v>0.0002204948104918003</v>
+        <v>0.0003334479406476021</v>
       </c>
       <c r="E2">
-        <v>0.07130659278482199</v>
+        <v>0.1232835752889514</v>
       </c>
       <c r="F2">
         <v>74</v>
       </c>
       <c r="G2">
-        <v>0.005091064609587193</v>
+        <v>0.006893382407724857</v>
       </c>
       <c r="H2">
-        <v>0.008485582657158375</v>
+        <v>0.01055803522467613</v>
       </c>
       <c r="I2">
-        <v>0.01772248419001698</v>
+        <v>0.06034007668495178</v>
       </c>
       <c r="J2">
-        <v>0.03472968563437462</v>
+        <v>0.03968131495639682</v>
       </c>
       <c r="K2">
-        <v>0.001473214011639357</v>
+        <v>0.001510561909526587</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>74</v>
       </c>
       <c r="D3">
-        <v>0.01317217200994492</v>
+        <v>0.01014292286708951</v>
       </c>
       <c r="E3">
-        <v>0.1420593098737299</v>
+        <v>0.1390881040133536</v>
       </c>
       <c r="F3">
         <v>74</v>
       </c>
       <c r="G3">
-        <v>0.005182759836316109</v>
+        <v>0.00676274998113513</v>
       </c>
       <c r="H3">
-        <v>0.02178089832887053</v>
+        <v>0.02089785737916827</v>
       </c>
       <c r="I3">
-        <v>0.03180655324831605</v>
+        <v>0.05615905625745654</v>
       </c>
       <c r="J3">
-        <v>0.06778038246557117</v>
+        <v>0.0493462230078876</v>
       </c>
       <c r="K3">
-        <v>0.00274834455922246</v>
+        <v>0.001542714424431324</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>74</v>
       </c>
       <c r="D4">
-        <v>0.008897277060896158</v>
+        <v>0.009386209305375814</v>
       </c>
       <c r="E4">
-        <v>0.09920145897194743</v>
+        <v>0.1433697752654552</v>
       </c>
       <c r="F4">
         <v>74</v>
       </c>
       <c r="G4">
-        <v>0.004782401956617832</v>
+        <v>0.006645115558058023</v>
       </c>
       <c r="H4">
-        <v>0.01754860859364271</v>
+        <v>0.0192387979477644</v>
       </c>
       <c r="I4">
-        <v>0.0193409463390708</v>
+        <v>0.06180515419691801</v>
       </c>
       <c r="J4">
-        <v>0.05224540131166577</v>
+        <v>0.05014666821807623</v>
       </c>
       <c r="K4">
-        <v>0.001587110571563244</v>
+        <v>0.001486039720475674</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>74</v>
       </c>
       <c r="D5">
-        <v>0.001077121123671532</v>
+        <v>0.0004838951863348484</v>
       </c>
       <c r="E5">
-        <v>0.1215641372837126</v>
+        <v>0.1254716287367046</v>
       </c>
       <c r="F5">
         <v>74</v>
       </c>
       <c r="G5">
-        <v>0.009230953175574541</v>
+        <v>0.006760122254490852</v>
       </c>
       <c r="H5">
-        <v>0.01577665004879236</v>
+        <v>0.01092662895098329</v>
       </c>
       <c r="I5">
-        <v>0.04225967964157462</v>
+        <v>0.0610449630767107</v>
       </c>
       <c r="J5">
-        <v>0.04756954172626138</v>
+        <v>0.04063326586037874</v>
       </c>
       <c r="K5">
-        <v>0.002093059010803699</v>
+        <v>0.001608534716069698</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>376</v>
       </c>
       <c r="D6">
-        <v>0.01373687805607915</v>
+        <v>0.01102607138454914</v>
       </c>
       <c r="E6">
-        <v>0.594881584867835</v>
+        <v>1.400171426124871</v>
       </c>
       <c r="F6">
         <v>376</v>
       </c>
       <c r="G6">
-        <v>0.01925490237772465</v>
+        <v>0.01685901638120413</v>
       </c>
       <c r="H6">
-        <v>0.04424832295626402</v>
+        <v>0.04502810444682837</v>
       </c>
       <c r="I6">
-        <v>0.4168348177336156</v>
+        <v>1.242255682125688</v>
       </c>
       <c r="J6">
-        <v>0.09340063342824578</v>
+        <v>0.07556350808590651</v>
       </c>
       <c r="K6">
-        <v>0.006329506635665894</v>
+        <v>0.006039711181074381</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>74</v>
       </c>
       <c r="D8">
-        <v>0.0002204948104918003</v>
+        <v>0.0003334479406476021</v>
       </c>
       <c r="E8">
-        <v>0.07130659278482199</v>
+        <v>0.1232835752889514</v>
       </c>
       <c r="F8">
         <v>74</v>
       </c>
       <c r="G8">
-        <v>0.005091064609587193</v>
+        <v>0.006893382407724857</v>
       </c>
       <c r="H8">
-        <v>0.008485582657158375</v>
+        <v>0.01055803522467613</v>
       </c>
       <c r="I8">
-        <v>0.01772248419001698</v>
+        <v>0.06034007668495178</v>
       </c>
       <c r="J8">
-        <v>0.03472968563437462</v>
+        <v>0.03968131495639682</v>
       </c>
       <c r="K8">
-        <v>0.001473214011639357</v>
+        <v>0.001510561909526587</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>74</v>
       </c>
       <c r="D9">
-        <v>0.01317217200994492</v>
+        <v>0.01014292286708951</v>
       </c>
       <c r="E9">
-        <v>0.1420593098737299</v>
+        <v>0.1390881040133536</v>
       </c>
       <c r="F9">
         <v>74</v>
       </c>
       <c r="G9">
-        <v>0.005182759836316109</v>
+        <v>0.00676274998113513</v>
       </c>
       <c r="H9">
-        <v>0.02178089832887053</v>
+        <v>0.02089785737916827</v>
       </c>
       <c r="I9">
-        <v>0.03180655324831605</v>
+        <v>0.05615905625745654</v>
       </c>
       <c r="J9">
-        <v>0.06778038246557117</v>
+        <v>0.0493462230078876</v>
       </c>
       <c r="K9">
-        <v>0.00274834455922246</v>
+        <v>0.001542714424431324</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>74</v>
       </c>
       <c r="D10">
-        <v>0.008897277060896158</v>
+        <v>0.009386209305375814</v>
       </c>
       <c r="E10">
-        <v>0.09920145897194743</v>
+        <v>0.1433697752654552</v>
       </c>
       <c r="F10">
         <v>74</v>
       </c>
       <c r="G10">
-        <v>0.004782401956617832</v>
+        <v>0.006645115558058023</v>
       </c>
       <c r="H10">
-        <v>0.01754860859364271</v>
+        <v>0.0192387979477644</v>
       </c>
       <c r="I10">
-        <v>0.0193409463390708</v>
+        <v>0.06180515419691801</v>
       </c>
       <c r="J10">
-        <v>0.05224540131166577</v>
+        <v>0.05014666821807623</v>
       </c>
       <c r="K10">
-        <v>0.001587110571563244</v>
+        <v>0.001486039720475674</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>74</v>
       </c>
       <c r="D11">
-        <v>0.001077121123671532</v>
+        <v>0.0004838951863348484</v>
       </c>
       <c r="E11">
-        <v>0.1215641372837126</v>
+        <v>0.1254716287367046</v>
       </c>
       <c r="F11">
         <v>74</v>
       </c>
       <c r="G11">
-        <v>0.009230953175574541</v>
+        <v>0.006760122254490852</v>
       </c>
       <c r="H11">
-        <v>0.01577665004879236</v>
+        <v>0.01092662895098329</v>
       </c>
       <c r="I11">
-        <v>0.04225967964157462</v>
+        <v>0.0610449630767107</v>
       </c>
       <c r="J11">
-        <v>0.04756954172626138</v>
+        <v>0.04063326586037874</v>
       </c>
       <c r="K11">
-        <v>0.002093059010803699</v>
+        <v>0.001608534716069698</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>376</v>
       </c>
       <c r="D12">
-        <v>0.01373687805607915</v>
+        <v>0.01102607138454914</v>
       </c>
       <c r="E12">
-        <v>0.594881584867835</v>
+        <v>1.400171426124871</v>
       </c>
       <c r="F12">
         <v>376</v>
       </c>
       <c r="G12">
-        <v>0.01925490237772465</v>
+        <v>0.01685901638120413</v>
       </c>
       <c r="H12">
-        <v>0.04424832295626402</v>
+        <v>0.04502810444682837</v>
       </c>
       <c r="I12">
-        <v>0.4168348177336156</v>
+        <v>1.242255682125688</v>
       </c>
       <c r="J12">
-        <v>0.09340063342824578</v>
+        <v>0.07556350808590651</v>
       </c>
       <c r="K12">
-        <v>0.006329506635665894</v>
+        <v>0.006039711181074381</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>179</v>
       </c>
       <c r="D2">
-        <v>179</v>
-      </c>
-      <c r="E2">
-        <v>179</v>
-      </c>
-      <c r="F2">
-        <v>179</v>
-      </c>
-      <c r="G2">
-        <v>179</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>0.0003334479406476021</v>
+        <v>0.009878217242658138</v>
       </c>
       <c r="E2">
-        <v>0.1232835752889514</v>
+        <v>0.1064096391201019</v>
       </c>
       <c r="F2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>0.006893382407724857</v>
+        <v>0.006109802052378654</v>
       </c>
       <c r="H2">
-        <v>0.01055803522467613</v>
+        <v>0.0187726216390729</v>
       </c>
       <c r="I2">
-        <v>0.06034007668495178</v>
+        <v>0.0369206452742219</v>
       </c>
       <c r="J2">
-        <v>0.03968131495639682</v>
+        <v>0.03692098846659064</v>
       </c>
       <c r="K2">
-        <v>0.001510561909526587</v>
+        <v>0.00315776513889432</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>74</v>
-      </c>
-      <c r="D3">
-        <v>0.01014292286708951</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1390881040133536</v>
-      </c>
-      <c r="F3">
-        <v>74</v>
-      </c>
-      <c r="G3">
-        <v>0.00676274998113513</v>
-      </c>
-      <c r="H3">
-        <v>0.02089785737916827</v>
-      </c>
-      <c r="I3">
-        <v>0.05615905625745654</v>
-      </c>
-      <c r="J3">
-        <v>0.0493462230078876</v>
-      </c>
-      <c r="K3">
-        <v>0.001542714424431324</v>
+        <v>0.03272617282345891</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>0.009386209305375814</v>
+        <v>0.009878217242658138</v>
       </c>
       <c r="E4">
-        <v>0.1433697752654552</v>
+        <v>0.1064096391201019</v>
       </c>
       <c r="F4">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>0.006645115558058023</v>
+        <v>0.006109802052378654</v>
       </c>
       <c r="H4">
-        <v>0.0192387979477644</v>
+        <v>0.0187726216390729</v>
       </c>
       <c r="I4">
-        <v>0.06180515419691801</v>
+        <v>0.0369206452742219</v>
       </c>
       <c r="J4">
-        <v>0.05014666821807623</v>
+        <v>0.03692098846659064</v>
       </c>
       <c r="K4">
-        <v>0.001486039720475674</v>
+        <v>0.00315776513889432</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>74</v>
-      </c>
-      <c r="D5">
-        <v>0.0004838951863348484</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1254716287367046</v>
-      </c>
-      <c r="F5">
-        <v>74</v>
-      </c>
-      <c r="G5">
-        <v>0.006760122254490852</v>
-      </c>
-      <c r="H5">
-        <v>0.01092662895098329</v>
-      </c>
-      <c r="I5">
-        <v>0.0610449630767107</v>
-      </c>
-      <c r="J5">
-        <v>0.04063326586037874</v>
-      </c>
-      <c r="K5">
-        <v>0.001608534716069698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>376</v>
-      </c>
-      <c r="D6">
-        <v>0.01102607138454914</v>
-      </c>
-      <c r="E6">
-        <v>1.400171426124871</v>
-      </c>
-      <c r="F6">
-        <v>376</v>
-      </c>
-      <c r="G6">
-        <v>0.01685901638120413</v>
-      </c>
-      <c r="H6">
-        <v>0.04502810444682837</v>
-      </c>
-      <c r="I6">
-        <v>1.242255682125688</v>
-      </c>
-      <c r="J6">
-        <v>0.07556350808590651</v>
-      </c>
-      <c r="K6">
-        <v>0.006039711181074381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>2850</v>
-      </c>
-      <c r="E7">
-        <v>0.03147953515872359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>74</v>
-      </c>
-      <c r="D8">
-        <v>0.0003334479406476021</v>
-      </c>
-      <c r="E8">
-        <v>0.1232835752889514</v>
-      </c>
-      <c r="F8">
-        <v>74</v>
-      </c>
-      <c r="G8">
-        <v>0.006893382407724857</v>
-      </c>
-      <c r="H8">
-        <v>0.01055803522467613</v>
-      </c>
-      <c r="I8">
-        <v>0.06034007668495178</v>
-      </c>
-      <c r="J8">
-        <v>0.03968131495639682</v>
-      </c>
-      <c r="K8">
-        <v>0.001510561909526587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>74</v>
-      </c>
-      <c r="D9">
-        <v>0.01014292286708951</v>
-      </c>
-      <c r="E9">
-        <v>0.1390881040133536</v>
-      </c>
-      <c r="F9">
-        <v>74</v>
-      </c>
-      <c r="G9">
-        <v>0.00676274998113513</v>
-      </c>
-      <c r="H9">
-        <v>0.02089785737916827</v>
-      </c>
-      <c r="I9">
-        <v>0.05615905625745654</v>
-      </c>
-      <c r="J9">
-        <v>0.0493462230078876</v>
-      </c>
-      <c r="K9">
-        <v>0.001542714424431324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>74</v>
-      </c>
-      <c r="D10">
-        <v>0.009386209305375814</v>
-      </c>
-      <c r="E10">
-        <v>0.1433697752654552</v>
-      </c>
-      <c r="F10">
-        <v>74</v>
-      </c>
-      <c r="G10">
-        <v>0.006645115558058023</v>
-      </c>
-      <c r="H10">
-        <v>0.0192387979477644</v>
-      </c>
-      <c r="I10">
-        <v>0.06180515419691801</v>
-      </c>
-      <c r="J10">
-        <v>0.05014666821807623</v>
-      </c>
-      <c r="K10">
-        <v>0.001486039720475674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>0.0004838951863348484</v>
-      </c>
-      <c r="E11">
-        <v>0.1254716287367046</v>
-      </c>
-      <c r="F11">
-        <v>74</v>
-      </c>
-      <c r="G11">
-        <v>0.006760122254490852</v>
-      </c>
-      <c r="H11">
-        <v>0.01092662895098329</v>
-      </c>
-      <c r="I11">
-        <v>0.0610449630767107</v>
-      </c>
-      <c r="J11">
-        <v>0.04063326586037874</v>
-      </c>
-      <c r="K11">
-        <v>0.001608534716069698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>376</v>
-      </c>
-      <c r="D12">
-        <v>0.01102607138454914</v>
-      </c>
-      <c r="E12">
-        <v>1.400171426124871</v>
-      </c>
-      <c r="F12">
-        <v>376</v>
-      </c>
-      <c r="G12">
-        <v>0.01685901638120413</v>
-      </c>
-      <c r="H12">
-        <v>0.04502810444682837</v>
-      </c>
-      <c r="I12">
-        <v>1.242255682125688</v>
-      </c>
-      <c r="J12">
-        <v>0.07556350808590651</v>
-      </c>
-      <c r="K12">
-        <v>0.006039711181074381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>2850</v>
-      </c>
-      <c r="E13">
-        <v>0.03147953515872359</v>
+        <v>0.03272617282345891</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b12.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>179</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
+        <v>179</v>
+      </c>
+      <c r="E2">
+        <v>179</v>
+      </c>
+      <c r="F2">
+        <v>179</v>
+      </c>
+      <c r="G2">
+        <v>179</v>
+      </c>
+      <c r="H2">
+        <v>179</v>
+      </c>
+      <c r="I2">
+        <v>179</v>
+      </c>
+      <c r="J2">
+        <v>179</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>0.009878217242658138</v>
+        <v>0.0004803156480193138</v>
       </c>
       <c r="E2">
-        <v>0.1064096391201019</v>
+        <v>0.06535506201907992</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>0.006109802052378654</v>
+        <v>0.005490366835147142</v>
       </c>
       <c r="H2">
-        <v>0.0187726216390729</v>
+        <v>0.007376121822744608</v>
       </c>
       <c r="I2">
-        <v>0.0369206452742219</v>
+        <v>0.02549225743860006</v>
       </c>
       <c r="J2">
-        <v>0.03692098846659064</v>
+        <v>0.02046873467043042</v>
       </c>
       <c r="K2">
-        <v>0.00315776513889432</v>
+        <v>0.002695053815841675</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0.009250598959624767</v>
       </c>
       <c r="E3">
-        <v>0.03272617282345891</v>
+        <v>0.09227985003963113</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0.005840737838298082</v>
+      </c>
+      <c r="H3">
+        <v>0.01785455178469419</v>
+      </c>
+      <c r="I3">
+        <v>0.03277267562225461</v>
+      </c>
+      <c r="J3">
+        <v>0.02913118526339531</v>
+      </c>
+      <c r="K3">
+        <v>0.002508055418729782</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>0.009878217242658138</v>
+        <v>0.005621683783829212</v>
       </c>
       <c r="E4">
-        <v>0.1064096391201019</v>
+        <v>0.07650942401960492</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G4">
-        <v>0.006109802052378654</v>
+        <v>0.005103363189846277</v>
       </c>
       <c r="H4">
-        <v>0.0187726216390729</v>
+        <v>0.01244174595922232</v>
       </c>
       <c r="I4">
-        <v>0.0369206452742219</v>
+        <v>0.02006064634770155</v>
       </c>
       <c r="J4">
-        <v>0.03692098846659064</v>
+        <v>0.03327968856319785</v>
       </c>
       <c r="K4">
-        <v>0.00315776513889432</v>
+        <v>0.002335299272090197</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>0.0003182985819876194</v>
       </c>
       <c r="E5">
+        <v>0.0651962417177856</v>
+      </c>
+      <c r="F5">
+        <v>74</v>
+      </c>
+      <c r="G5">
+        <v>0.005857037845999002</v>
+      </c>
+      <c r="H5">
+        <v>0.007406494580209255</v>
+      </c>
+      <c r="I5">
+        <v>0.02459609601646662</v>
+      </c>
+      <c r="J5">
+        <v>0.02101257676258683</v>
+      </c>
+      <c r="K5">
+        <v>0.002496960572898388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>376</v>
+      </c>
+      <c r="D6">
+        <v>0.002441995311528444</v>
+      </c>
+      <c r="E6">
+        <v>0.7439094884321094</v>
+      </c>
+      <c r="F6">
+        <v>376</v>
+      </c>
+      <c r="G6">
+        <v>0.02183952741324902</v>
+      </c>
+      <c r="H6">
+        <v>0.03325122687965631</v>
+      </c>
+      <c r="I6">
+        <v>0.6201240518130362</v>
+      </c>
+      <c r="J6">
+        <v>0.03942033415660262</v>
+      </c>
+      <c r="K6">
+        <v>0.0123513201251626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2063</v>
+      </c>
+      <c r="D7">
+        <v>0.02823712443932891</v>
+      </c>
+      <c r="E7">
+        <v>3.891111642122269</v>
+      </c>
+      <c r="F7">
+        <v>2063</v>
+      </c>
+      <c r="G7">
+        <v>0.102151698898524</v>
+      </c>
+      <c r="H7">
+        <v>0.1762834354303777</v>
+      </c>
+      <c r="I7">
+        <v>3.253527880646288</v>
+      </c>
+      <c r="J7">
+        <v>0.2171130781061947</v>
+      </c>
+      <c r="K7">
+        <v>0.06043673818930984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>376</v>
+      </c>
+      <c r="D8">
+        <v>0.01781440898776054</v>
+      </c>
+      <c r="E8">
+        <v>0.8121938486583531</v>
+      </c>
+      <c r="F8">
+        <v>376</v>
+      </c>
+      <c r="G8">
+        <v>0.02204559836536646</v>
+      </c>
+      <c r="H8">
+        <v>0.05492280749604106</v>
+      </c>
+      <c r="I8">
+        <v>0.639286307618022</v>
+      </c>
+      <c r="J8">
+        <v>0.06678670179098845</v>
+      </c>
+      <c r="K8">
+        <v>0.01258870121091604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>376</v>
+      </c>
+      <c r="D9">
+        <v>0.003062927164137363</v>
+      </c>
+      <c r="E9">
+        <v>0.7701306180097163</v>
+      </c>
+      <c r="F9">
+        <v>376</v>
+      </c>
+      <c r="G9">
+        <v>0.02110246382653713</v>
+      </c>
+      <c r="H9">
+        <v>0.03765380615368485</v>
+      </c>
+      <c r="I9">
+        <v>0.6437158165499568</v>
+      </c>
+      <c r="J9">
+        <v>0.03935061022639275</v>
+      </c>
+      <c r="K9">
+        <v>0.01236172718927264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.03272617282345891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>0.0004803156480193138</v>
+      </c>
+      <c r="E11">
+        <v>0.06535506201907992</v>
+      </c>
+      <c r="F11">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <v>0.005490366835147142</v>
+      </c>
+      <c r="H11">
+        <v>0.007376121822744608</v>
+      </c>
+      <c r="I11">
+        <v>0.02549225743860006</v>
+      </c>
+      <c r="J11">
+        <v>0.02046873467043042</v>
+      </c>
+      <c r="K11">
+        <v>0.002695053815841675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>0.009250598959624767</v>
+      </c>
+      <c r="E12">
+        <v>0.09227985003963113</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>0.005840737838298082</v>
+      </c>
+      <c r="H12">
+        <v>0.01785455178469419</v>
+      </c>
+      <c r="I12">
+        <v>0.03277267562225461</v>
+      </c>
+      <c r="J12">
+        <v>0.02913118526339531</v>
+      </c>
+      <c r="K12">
+        <v>0.002508055418729782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>0.005621683783829212</v>
+      </c>
+      <c r="E13">
+        <v>0.07650942401960492</v>
+      </c>
+      <c r="F13">
+        <v>74</v>
+      </c>
+      <c r="G13">
+        <v>0.005103363189846277</v>
+      </c>
+      <c r="H13">
+        <v>0.01244174595922232</v>
+      </c>
+      <c r="I13">
+        <v>0.02006064634770155</v>
+      </c>
+      <c r="J13">
+        <v>0.03327968856319785</v>
+      </c>
+      <c r="K13">
+        <v>0.002335299272090197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>0.0003182985819876194</v>
+      </c>
+      <c r="E14">
+        <v>0.0651962417177856</v>
+      </c>
+      <c r="F14">
+        <v>74</v>
+      </c>
+      <c r="G14">
+        <v>0.005857037845999002</v>
+      </c>
+      <c r="H14">
+        <v>0.007406494580209255</v>
+      </c>
+      <c r="I14">
+        <v>0.02459609601646662</v>
+      </c>
+      <c r="J14">
+        <v>0.02101257676258683</v>
+      </c>
+      <c r="K14">
+        <v>0.002496960572898388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>376</v>
+      </c>
+      <c r="D15">
+        <v>0.002441995311528444</v>
+      </c>
+      <c r="E15">
+        <v>0.7439094884321094</v>
+      </c>
+      <c r="F15">
+        <v>376</v>
+      </c>
+      <c r="G15">
+        <v>0.02183952741324902</v>
+      </c>
+      <c r="H15">
+        <v>0.03325122687965631</v>
+      </c>
+      <c r="I15">
+        <v>0.6201240518130362</v>
+      </c>
+      <c r="J15">
+        <v>0.03942033415660262</v>
+      </c>
+      <c r="K15">
+        <v>0.0123513201251626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>2063</v>
+      </c>
+      <c r="D16">
+        <v>0.02823712443932891</v>
+      </c>
+      <c r="E16">
+        <v>3.891111642122269</v>
+      </c>
+      <c r="F16">
+        <v>2063</v>
+      </c>
+      <c r="G16">
+        <v>0.102151698898524</v>
+      </c>
+      <c r="H16">
+        <v>0.1762834354303777</v>
+      </c>
+      <c r="I16">
+        <v>3.253527880646288</v>
+      </c>
+      <c r="J16">
+        <v>0.2171130781061947</v>
+      </c>
+      <c r="K16">
+        <v>0.06043673818930984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>376</v>
+      </c>
+      <c r="D17">
+        <v>0.01781440898776054</v>
+      </c>
+      <c r="E17">
+        <v>0.8121938486583531</v>
+      </c>
+      <c r="F17">
+        <v>376</v>
+      </c>
+      <c r="G17">
+        <v>0.02204559836536646</v>
+      </c>
+      <c r="H17">
+        <v>0.05492280749604106</v>
+      </c>
+      <c r="I17">
+        <v>0.639286307618022</v>
+      </c>
+      <c r="J17">
+        <v>0.06678670179098845</v>
+      </c>
+      <c r="K17">
+        <v>0.01258870121091604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>376</v>
+      </c>
+      <c r="D18">
+        <v>0.003062927164137363</v>
+      </c>
+      <c r="E18">
+        <v>0.7701306180097163</v>
+      </c>
+      <c r="F18">
+        <v>376</v>
+      </c>
+      <c r="G18">
+        <v>0.02110246382653713</v>
+      </c>
+      <c r="H18">
+        <v>0.03765380615368485</v>
+      </c>
+      <c r="I18">
+        <v>0.6437158165499568</v>
+      </c>
+      <c r="J18">
+        <v>0.03935061022639275</v>
+      </c>
+      <c r="K18">
+        <v>0.01236172718927264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0.03272617282345891</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
